--- a/data/2010 to present.xlsx
+++ b/data/2010 to present.xlsx
@@ -98316,6 +98316,422 @@
         <v>10.00</v>
       </c>
     </row>
+    <row r="4770">
+      <c r="A4770" s="67">
+        <v>44946</v>
+      </c>
+      <c t="n" r="B4770">
+        <v>27.0</v>
+      </c>
+      <c t="n" r="C4770">
+        <v>18.0</v>
+      </c>
+      <c r="D4770" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="E4770" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="F4770" s="66">
+        <v>11.00</v>
+      </c>
+    </row>
+    <row r="4771">
+      <c r="A4771" s="67">
+        <v>44947</v>
+      </c>
+      <c t="n" r="B4771">
+        <v>24.0</v>
+      </c>
+      <c t="n" r="C4771">
+        <v>17.0</v>
+      </c>
+      <c t="inlineStr" r="D4771">
+        <is>
+          <t xml:space="preserve">T</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E4771">
+        <is>
+          <t xml:space="preserve">T</t>
+        </is>
+      </c>
+      <c r="F4771" s="66">
+        <v>11.00</v>
+      </c>
+    </row>
+    <row r="4772">
+      <c r="A4772" s="67">
+        <v>44948</v>
+      </c>
+      <c t="n" r="B4772">
+        <v>21.0</v>
+      </c>
+      <c t="n" r="C4772">
+        <v>15.0</v>
+      </c>
+      <c r="D4772" s="66">
+        <v>0.01</v>
+      </c>
+      <c r="E4772" s="66">
+        <v>0.10</v>
+      </c>
+      <c r="F4772" s="66">
+        <v>10.00</v>
+      </c>
+    </row>
+    <row r="4773">
+      <c r="A4773" s="67">
+        <v>44949</v>
+      </c>
+      <c t="n" r="B4773">
+        <v>31.0</v>
+      </c>
+      <c t="n" r="C4773">
+        <v>11.0</v>
+      </c>
+      <c t="inlineStr" r="D4773">
+        <is>
+          <t xml:space="preserve">T</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E4773">
+        <is>
+          <t xml:space="preserve">T</t>
+        </is>
+      </c>
+      <c r="F4773" s="66">
+        <v>10.00</v>
+      </c>
+    </row>
+    <row r="4774">
+      <c r="A4774" s="67">
+        <v>44950</v>
+      </c>
+      <c t="n" r="B4774">
+        <v>29.0</v>
+      </c>
+      <c t="n" r="C4774">
+        <v>14.0</v>
+      </c>
+      <c t="inlineStr" r="D4774">
+        <is>
+          <t xml:space="preserve">T</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E4774">
+        <is>
+          <t xml:space="preserve">T</t>
+        </is>
+      </c>
+      <c r="F4774" s="66">
+        <v>10.00</v>
+      </c>
+    </row>
+    <row r="4775">
+      <c r="A4775" s="67">
+        <v>44951</v>
+      </c>
+      <c t="n" r="B4775">
+        <v>28.0</v>
+      </c>
+      <c t="n" r="C4775">
+        <v>16.0</v>
+      </c>
+      <c r="D4775" s="66">
+        <v>0.03</v>
+      </c>
+      <c r="E4775" s="66">
+        <v>0.70</v>
+      </c>
+      <c r="F4775" s="66">
+        <v>9.00</v>
+      </c>
+    </row>
+    <row r="4776">
+      <c r="A4776" s="67">
+        <v>44952</v>
+      </c>
+      <c t="n" r="B4776">
+        <v>16.0</v>
+      </c>
+      <c t="n" r="C4776">
+        <v>2.0</v>
+      </c>
+      <c t="inlineStr" r="D4776">
+        <is>
+          <t xml:space="preserve">T</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E4776">
+        <is>
+          <t xml:space="preserve">T</t>
+        </is>
+      </c>
+      <c r="F4776" s="66">
+        <v>10.00</v>
+      </c>
+    </row>
+    <row r="4777">
+      <c r="A4777" s="67">
+        <v>44953</v>
+      </c>
+      <c t="n" r="B4777">
+        <v>33.0</v>
+      </c>
+      <c t="n" r="C4777">
+        <v>6.0</v>
+      </c>
+      <c r="D4777" s="66">
+        <v>0.14</v>
+      </c>
+      <c r="E4777" s="66">
+        <v>2.20</v>
+      </c>
+      <c r="F4777" s="66">
+        <v>12.00</v>
+      </c>
+    </row>
+    <row r="4778">
+      <c r="A4778" s="67">
+        <v>44954</v>
+      </c>
+      <c t="n" r="B4778">
+        <v>7.0</v>
+      </c>
+      <c t="n" r="C4778">
+        <v>2.0</v>
+      </c>
+      <c r="D4778" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="E4778" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="F4778" s="66">
+        <v>11.00</v>
+      </c>
+    </row>
+    <row r="4779">
+      <c r="A4779" s="67">
+        <v>44955</v>
+      </c>
+      <c t="n" r="B4779">
+        <v>6.0</v>
+      </c>
+      <c t="n" r="C4779">
+        <v>-5.0</v>
+      </c>
+      <c r="D4779" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="E4779" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="F4779" s="66">
+        <v>11.00</v>
+      </c>
+    </row>
+    <row r="4780">
+      <c r="A4780" s="67">
+        <v>44956</v>
+      </c>
+      <c t="n" r="B4780">
+        <v>2.0</v>
+      </c>
+      <c t="n" r="C4780">
+        <v>-8.0</v>
+      </c>
+      <c r="D4780" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="E4780" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="F4780" s="66">
+        <v>11.00</v>
+      </c>
+    </row>
+    <row r="4781">
+      <c r="A4781" s="67">
+        <v>44957</v>
+      </c>
+      <c t="n" r="B4781">
+        <v>10.0</v>
+      </c>
+      <c t="n" r="C4781">
+        <v>-8.0</v>
+      </c>
+      <c r="D4781" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="E4781" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="F4781" s="66">
+        <v>10.00</v>
+      </c>
+    </row>
+    <row r="4782">
+      <c r="A4782" s="67">
+        <v>44958</v>
+      </c>
+      <c t="n" r="B4782">
+        <v>21.0</v>
+      </c>
+      <c t="n" r="C4782">
+        <v>1.0</v>
+      </c>
+      <c r="D4782" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="E4782" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="F4782" s="66">
+        <v>10.00</v>
+      </c>
+    </row>
+    <row r="4783">
+      <c r="A4783" s="67">
+        <v>44959</v>
+      </c>
+      <c t="n" r="B4783">
+        <v>15.0</v>
+      </c>
+      <c t="n" r="C4783">
+        <v>-9.0</v>
+      </c>
+      <c r="D4783" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="E4783" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="F4783" s="66">
+        <v>10.00</v>
+      </c>
+    </row>
+    <row r="4784">
+      <c r="A4784" s="67">
+        <v>44960</v>
+      </c>
+      <c t="n" r="B4784">
+        <v>4.0</v>
+      </c>
+      <c t="n" r="C4784">
+        <v>-13.0</v>
+      </c>
+      <c r="D4784" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="E4784" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="F4784" s="66">
+        <v>10.00</v>
+      </c>
+    </row>
+    <row r="4785">
+      <c r="A4785" s="67">
+        <v>44961</v>
+      </c>
+      <c t="n" r="B4785">
+        <v>28.0</v>
+      </c>
+      <c t="n" r="C4785">
+        <v>2.0</v>
+      </c>
+      <c r="D4785" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="E4785" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="F4785" s="66">
+        <v>10.00</v>
+      </c>
+    </row>
+    <row r="4786">
+      <c r="A4786" s="67">
+        <v>44962</v>
+      </c>
+      <c t="n" r="B4786">
+        <v>31.0</v>
+      </c>
+      <c t="n" r="C4786">
+        <v>14.0</v>
+      </c>
+      <c r="D4786" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="E4786" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="F4786" s="66">
+        <v>10.00</v>
+      </c>
+    </row>
+    <row r="4787">
+      <c r="A4787" s="67">
+        <v>44963</v>
+      </c>
+      <c t="n" r="B4787">
+        <v>36.0</v>
+      </c>
+      <c t="n" r="C4787">
+        <v>14.0</v>
+      </c>
+      <c r="D4787" s="66">
+        <v>0.09</v>
+      </c>
+      <c r="E4787" s="66">
+        <v>0.10</v>
+      </c>
+      <c r="F4787" s="66">
+        <v>9.00</v>
+      </c>
+    </row>
+    <row r="4788">
+      <c r="A4788" s="67">
+        <v>44964</v>
+      </c>
+      <c t="n" r="B4788">
+        <v>35.0</v>
+      </c>
+      <c t="n" r="C4788">
+        <v>27.0</v>
+      </c>
+      <c r="D4788" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="E4788" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="F4788" s="66">
+        <v>9.00</v>
+      </c>
+    </row>
+    <row r="4789">
+      <c r="A4789" s="67">
+        <v>44965</v>
+      </c>
+      <c t="n" r="B4789">
+        <v>45.0</v>
+      </c>
+      <c t="n" r="C4789">
+        <v>21.0</v>
+      </c>
+      <c r="D4789" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="E4789" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="F4789" s="66">
+        <v>9.00</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>

--- a/data/2010 to present.xlsx
+++ b/data/2010 to present.xlsx
@@ -98732,6 +98732,598 @@
         <v>9.00</v>
       </c>
     </row>
+    <row r="4790">
+      <c r="A4790" s="67">
+        <v>44966</v>
+      </c>
+      <c t="n" r="B4790">
+        <v>38.0</v>
+      </c>
+      <c t="n" r="C4790">
+        <v>19.0</v>
+      </c>
+      <c r="D4790" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="E4790" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="F4790" s="66">
+        <v>8.00</v>
+      </c>
+    </row>
+    <row r="4791">
+      <c r="A4791" s="67">
+        <v>44967</v>
+      </c>
+      <c t="n" r="B4791">
+        <v>29.0</v>
+      </c>
+      <c t="n" r="C4791">
+        <v>8.0</v>
+      </c>
+      <c r="D4791" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="E4791" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="F4791" s="66">
+        <v>8.00</v>
+      </c>
+    </row>
+    <row r="4792">
+      <c r="A4792" s="67">
+        <v>44968</v>
+      </c>
+      <c t="n" r="B4792">
+        <v>39.0</v>
+      </c>
+      <c t="n" r="C4792">
+        <v>28.0</v>
+      </c>
+      <c r="D4792" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="E4792" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="F4792" s="66">
+        <v>8.00</v>
+      </c>
+    </row>
+    <row r="4793">
+      <c r="A4793" s="67">
+        <v>44969</v>
+      </c>
+      <c t="n" r="B4793">
+        <v>43.0</v>
+      </c>
+      <c t="n" r="C4793">
+        <v>20.0</v>
+      </c>
+      <c r="D4793" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="E4793" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="F4793" s="66">
+        <v>7.00</v>
+      </c>
+    </row>
+    <row r="4794">
+      <c r="A4794" s="67">
+        <v>44970</v>
+      </c>
+      <c t="n" r="B4794">
+        <v>43.0</v>
+      </c>
+      <c t="n" r="C4794">
+        <v>24.0</v>
+      </c>
+      <c r="D4794" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="E4794" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="F4794" s="66">
+        <v>7.00</v>
+      </c>
+    </row>
+    <row r="4795">
+      <c r="A4795" s="67">
+        <v>44971</v>
+      </c>
+      <c t="n" r="B4795">
+        <v>43.0</v>
+      </c>
+      <c t="n" r="C4795">
+        <v>35.0</v>
+      </c>
+      <c r="D4795" s="66">
+        <v>0.68</v>
+      </c>
+      <c r="E4795" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="F4795" s="66">
+        <v>6.00</v>
+      </c>
+    </row>
+    <row r="4796">
+      <c r="A4796" s="67">
+        <v>44972</v>
+      </c>
+      <c t="n" r="B4796">
+        <v>38.0</v>
+      </c>
+      <c t="n" r="C4796">
+        <v>16.0</v>
+      </c>
+      <c r="D4796" s="66">
+        <v>0.16</v>
+      </c>
+      <c t="inlineStr" r="E4796">
+        <is>
+          <t xml:space="preserve">T</t>
+        </is>
+      </c>
+      <c r="F4796" s="66">
+        <v>5.00</v>
+      </c>
+    </row>
+    <row r="4797">
+      <c r="A4797" s="67">
+        <v>44973</v>
+      </c>
+      <c t="n" r="B4797">
+        <v>20.0</v>
+      </c>
+      <c t="n" r="C4797">
+        <v>12.0</v>
+      </c>
+      <c r="D4797" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="E4797" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="F4797" s="66">
+        <v>4.00</v>
+      </c>
+    </row>
+    <row r="4798">
+      <c r="A4798" s="67">
+        <v>44974</v>
+      </c>
+      <c t="n" r="B4798">
+        <v>29.0</v>
+      </c>
+      <c t="n" r="C4798">
+        <v>6.0</v>
+      </c>
+      <c r="D4798" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="E4798" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="F4798" s="66">
+        <v>4.00</v>
+      </c>
+    </row>
+    <row r="4799">
+      <c r="A4799" s="67">
+        <v>44975</v>
+      </c>
+      <c t="n" r="B4799">
+        <v>36.0</v>
+      </c>
+      <c t="n" r="C4799">
+        <v>22.0</v>
+      </c>
+      <c r="D4799" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="E4799" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="F4799" s="66">
+        <v>4.00</v>
+      </c>
+    </row>
+    <row r="4800">
+      <c r="A4800" s="67">
+        <v>44976</v>
+      </c>
+      <c t="n" r="B4800">
+        <v>35.0</v>
+      </c>
+      <c t="n" r="C4800">
+        <v>18.0</v>
+      </c>
+      <c r="D4800" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="E4800" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="F4800" s="66">
+        <v>4.00</v>
+      </c>
+    </row>
+    <row r="4801">
+      <c r="A4801" s="67">
+        <v>44977</v>
+      </c>
+      <c t="n" r="B4801">
+        <v>35.0</v>
+      </c>
+      <c t="n" r="C4801">
+        <v>10.0</v>
+      </c>
+      <c r="D4801" s="66">
+        <v>0.12</v>
+      </c>
+      <c r="E4801" s="66">
+        <v>1.70</v>
+      </c>
+      <c r="F4801" s="66">
+        <v>4.00</v>
+      </c>
+    </row>
+    <row r="4802">
+      <c r="A4802" s="67">
+        <v>44978</v>
+      </c>
+      <c t="n" r="B4802">
+        <v>15.0</v>
+      </c>
+      <c t="n" r="C4802">
+        <v>3.0</v>
+      </c>
+      <c r="D4802" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="E4802" s="66">
+        <v>3.10</v>
+      </c>
+      <c r="F4802" s="66">
+        <v>5.00</v>
+      </c>
+    </row>
+    <row r="4803">
+      <c r="A4803" s="67">
+        <v>44979</v>
+      </c>
+      <c t="n" r="B4803">
+        <v>21.0</v>
+      </c>
+      <c t="n" r="C4803">
+        <v>14.0</v>
+      </c>
+      <c r="D4803" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="E4803" s="66">
+        <v>3.80</v>
+      </c>
+      <c r="F4803" s="66">
+        <v>8.00</v>
+      </c>
+    </row>
+    <row r="4804">
+      <c r="A4804" s="67">
+        <v>44980</v>
+      </c>
+      <c t="n" r="B4804">
+        <v>18.0</v>
+      </c>
+      <c t="n" r="C4804">
+        <v>0.0</v>
+      </c>
+      <c r="D4804" s="66">
+        <v>0.35</v>
+      </c>
+      <c r="E4804" s="66">
+        <v>6.50</v>
+      </c>
+      <c r="F4804" s="66">
+        <v>11.00</v>
+      </c>
+    </row>
+    <row r="4805">
+      <c r="A4805" s="67">
+        <v>44981</v>
+      </c>
+      <c t="n" r="B4805">
+        <v>11.0</v>
+      </c>
+      <c t="n" r="C4805">
+        <v>-8.0</v>
+      </c>
+      <c t="inlineStr" r="D4805">
+        <is>
+          <t xml:space="preserve">T</t>
+        </is>
+      </c>
+      <c r="E4805" s="66">
+        <v>0.30</v>
+      </c>
+      <c r="F4805" s="66">
+        <v>13.00</v>
+      </c>
+    </row>
+    <row r="4806">
+      <c r="A4806" s="67">
+        <v>44982</v>
+      </c>
+      <c t="n" r="B4806">
+        <v>26.0</v>
+      </c>
+      <c t="n" r="C4806">
+        <v>3.0</v>
+      </c>
+      <c t="inlineStr" r="D4806">
+        <is>
+          <t xml:space="preserve">T</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E4806">
+        <is>
+          <t xml:space="preserve">T</t>
+        </is>
+      </c>
+      <c r="F4806" s="66">
+        <v>12.00</v>
+      </c>
+    </row>
+    <row r="4807">
+      <c r="A4807" s="67">
+        <v>44983</v>
+      </c>
+      <c t="n" r="B4807">
+        <v>33.0</v>
+      </c>
+      <c t="n" r="C4807">
+        <v>5.0</v>
+      </c>
+      <c r="D4807" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="E4807" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="F4807" s="66">
+        <v>12.00</v>
+      </c>
+    </row>
+    <row r="4808">
+      <c r="A4808" s="67">
+        <v>44984</v>
+      </c>
+      <c t="n" r="B4808">
+        <v>34.0</v>
+      </c>
+      <c t="n" r="C4808">
+        <v>28.0</v>
+      </c>
+      <c r="D4808" s="66">
+        <v>0.48</v>
+      </c>
+      <c r="E4808" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="F4808" s="66">
+        <v>11.00</v>
+      </c>
+    </row>
+    <row r="4809">
+      <c r="A4809" s="67">
+        <v>44985</v>
+      </c>
+      <c t="n" r="B4809">
+        <v>40.0</v>
+      </c>
+      <c t="n" r="C4809">
+        <v>20.0</v>
+      </c>
+      <c t="inlineStr" r="D4809">
+        <is>
+          <t xml:space="preserve">T</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E4809">
+        <is>
+          <t xml:space="preserve">T</t>
+        </is>
+      </c>
+      <c r="F4809" s="66">
+        <v>10.00</v>
+      </c>
+    </row>
+    <row r="4810">
+      <c r="A4810" s="67">
+        <v>44986</v>
+      </c>
+      <c t="n" r="B4810">
+        <v>38.0</v>
+      </c>
+      <c t="n" r="C4810">
+        <v>24.0</v>
+      </c>
+      <c r="D4810" s="66">
+        <v>0.05</v>
+      </c>
+      <c r="E4810" s="66">
+        <v>0.40</v>
+      </c>
+      <c r="F4810" s="66">
+        <v>7.00</v>
+      </c>
+    </row>
+    <row r="4811">
+      <c r="A4811" s="67">
+        <v>44987</v>
+      </c>
+      <c t="n" r="B4811">
+        <v>28.0</v>
+      </c>
+      <c t="n" r="C4811">
+        <v>17.0</v>
+      </c>
+      <c r="D4811" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="E4811" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="F4811" s="66">
+        <v>7.00</v>
+      </c>
+    </row>
+    <row r="4812">
+      <c r="A4812" s="67">
+        <v>44988</v>
+      </c>
+      <c t="n" r="B4812">
+        <v>42.0</v>
+      </c>
+      <c t="n" r="C4812">
+        <v>22.0</v>
+      </c>
+      <c r="D4812" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="E4812" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="F4812" s="66">
+        <v>7.00</v>
+      </c>
+    </row>
+    <row r="4813">
+      <c r="A4813" s="67">
+        <v>44989</v>
+      </c>
+      <c t="n" r="B4813">
+        <v>38.0</v>
+      </c>
+      <c t="n" r="C4813">
+        <v>23.0</v>
+      </c>
+      <c r="D4813" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="E4813" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="F4813" s="66">
+        <v>7.00</v>
+      </c>
+    </row>
+    <row r="4814">
+      <c r="A4814" s="67">
+        <v>44990</v>
+      </c>
+      <c t="n" r="B4814">
+        <v>38.0</v>
+      </c>
+      <c t="n" r="C4814">
+        <v>19.0</v>
+      </c>
+      <c r="D4814" s="66">
+        <v>0.29</v>
+      </c>
+      <c r="E4814" s="66">
+        <v>2.80</v>
+      </c>
+      <c r="F4814" s="66">
+        <v>7.00</v>
+      </c>
+    </row>
+    <row r="4815">
+      <c r="A4815" s="67">
+        <v>44991</v>
+      </c>
+      <c t="n" r="B4815">
+        <v>36.0</v>
+      </c>
+      <c t="n" r="C4815">
+        <v>29.0</v>
+      </c>
+      <c r="D4815" s="66">
+        <v>0.05</v>
+      </c>
+      <c r="E4815" s="66">
+        <v>0.50</v>
+      </c>
+      <c r="F4815" s="66">
+        <v>9.00</v>
+      </c>
+    </row>
+    <row r="4816">
+      <c r="A4816" s="67">
+        <v>44992</v>
+      </c>
+      <c t="n" r="B4816">
+        <v>39.0</v>
+      </c>
+      <c t="n" r="C4816">
+        <v>27.0</v>
+      </c>
+      <c r="D4816" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="E4816" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="F4816" s="66">
+        <v>8.00</v>
+      </c>
+    </row>
+    <row r="4817">
+      <c r="A4817" s="67">
+        <v>44993</v>
+      </c>
+      <c t="n" r="B4817">
+        <v>35.0</v>
+      </c>
+      <c t="n" r="C4817">
+        <v>32.0</v>
+      </c>
+      <c r="D4817" s="66">
+        <v>0.05</v>
+      </c>
+      <c r="E4817" s="66">
+        <v>0.60</v>
+      </c>
+      <c r="F4817" s="66">
+        <v>7.00</v>
+      </c>
+    </row>
+    <row r="4818">
+      <c r="A4818" s="67">
+        <v>44994</v>
+      </c>
+      <c t="n" r="B4818">
+        <v>34.0</v>
+      </c>
+      <c t="n" r="C4818">
+        <v>29.0</v>
+      </c>
+      <c r="D4818" s="66">
+        <v>0.15</v>
+      </c>
+      <c r="E4818" s="66">
+        <v>2.10</v>
+      </c>
+      <c r="F4818" s="66">
+        <v>8.00</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
